--- a/biology/Médecine/Victor_Veau/Victor_Veau.xlsx
+++ b/biology/Médecine/Victor_Veau/Victor_Veau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Victor Veau (1871 - 1949) était un chirurgien français parisien, auteur de plusieurs ouvrages sur la chirurgie du bec de lièvre et la division palatine, ami intime de Louis Pasteur Vallery-Radot. Il participe au comité médical de la Résistance avec Gabriel Richet. 
 </t>
@@ -511,7 +523,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Précis de technique opératoire. Masson, 1904.
 Étude anatomique du bec-de-lièvre unilatéral total. Annales d'Anatomie Pathologique et d'Anatomie Normale 1928;5:601-32.
